--- a/data/trans_bre/P1414-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1414-Provincia-trans_bre.xlsx
@@ -627,7 +627,7 @@
         <v>5.004720362047882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>18.39613896713302</v>
+        <v>18.39613896713301</v>
       </c>
     </row>
     <row r="5">
@@ -638,17 +638,17 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8170603288588849</v>
+        <v>1.011928073150509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.224076951185501</v>
+        <v>1.184989553247521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.540517600038284</v>
+        <v>2.425860771211366</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>0.2947250538409008</v>
+        <v>0.01440378674691233</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
     </row>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.083641139475259</v>
+        <v>5.012416973360541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.088673216853558</v>
+        <v>6.12193931221418</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.722073514121687</v>
+        <v>5.621827654726585</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9971116538303961</v>
+        <v>0.982221955843909</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.25535983460485</v>
+        <v>1.398581913246667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.511568709280069</v>
+        <v>2.489089871849246</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.055625215827374</v>
+        <v>3.903264342501712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.432980338356705</v>
+        <v>4.472911165761451</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.168325373653002</v>
+        <v>5.197812638011619</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -762,7 +762,7 @@
         <v>1.423504396528848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.224702927501251</v>
+        <v>1.22470292750125</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4.457027844992783</v>
+        <v>4.457027844992782</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5746438681702213</v>
+        <v>0.5743380304970892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5006863380945432</v>
+        <v>0.4991082612245595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1813737573194558</v>
+        <v>0.1949567225876802</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.467650423554879</v>
+        <v>3.229144635101436</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.249074805197695</v>
+        <v>3.258289816006675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.435462392049206</v>
+        <v>2.53011014662298</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -836,7 +836,7 @@
         <v>2.018519724377101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.16857841106052</v>
+        <v>1.168578411060521</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>8.165787825929037</v>
@@ -845,7 +845,7 @@
         <v>7.730248240928484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.155431663356532</v>
+        <v>1.155431663356533</v>
       </c>
     </row>
     <row r="14">
@@ -856,18 +856,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9647842196074752</v>
+        <v>0.9899388793136404</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5789167715461544</v>
+        <v>0.5677397798368563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7341759351213497</v>
+        <v>-0.8126031582414351</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.563853742300623</v>
+        <v>-0.5258142410572372</v>
       </c>
     </row>
     <row r="15">
@@ -878,18 +878,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.618240982728891</v>
+        <v>4.354560833569803</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.998409751232306</v>
+        <v>4.07393846265556</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.56562033284847</v>
+        <v>2.526644429195929</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>12.45255821151568</v>
+        <v>11.70813345324685</v>
       </c>
     </row>
     <row r="16">
@@ -932,17 +932,17 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.340094945783949</v>
+        <v>1.282607417204906</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.94025075763145</v>
+        <v>2.126334340180265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.417829198286825</v>
+        <v>3.317534497892976</v>
       </c>
       <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="n">
-        <v>0.5324586304514817</v>
+        <v>0.4159745649332662</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
     </row>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.816442672601286</v>
+        <v>6.169361084859601</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.238859719853115</v>
+        <v>9.183812791065387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.155864412318115</v>
+        <v>7.344086531617755</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
@@ -984,7 +984,7 @@
         <v>2.323492317016134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2.736448777367964</v>
+        <v>2.736448777367963</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4.277121207755263</v>
+        <v>4.277121207755262</v>
       </c>
     </row>
     <row r="20">
@@ -1008,18 +1008,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3543394328141192</v>
+        <v>0.3561377337630915</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.110369935634154</v>
+        <v>1.113462917224692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.122317561959648</v>
+        <v>1.107456558127379</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>0.07378321433128693</v>
+        <v>0.2819997484265985</v>
       </c>
     </row>
     <row r="21">
@@ -1030,18 +1030,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.890315407254844</v>
+        <v>2.895615563625296</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.738262255242542</v>
+        <v>4.765496640476478</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.621193037358005</v>
+        <v>4.711581489295397</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>19.1616443907415</v>
+        <v>22.09458918969453</v>
       </c>
     </row>
     <row r="22">
@@ -1062,7 +1062,7 @@
         <v>1.583849633535987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.981880198455642</v>
+        <v>3.981880198455641</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>3.57534531648095</v>
@@ -1082,20 +1082,20 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2285782876739915</v>
+        <v>0.259091988096306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6181522336718749</v>
+        <v>0.6287142885935629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.591419777707355</v>
+        <v>2.739368262464231</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1770858288472482</v>
+        <v>-0.09697566132345958</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>1.402089464945062</v>
+        <v>1.828415883283637</v>
       </c>
     </row>
     <row r="24">
@@ -1106,18 +1106,18 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.396744375962952</v>
+        <v>2.354359754913362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.779962104908247</v>
+        <v>2.757647783950028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.363678597413663</v>
+        <v>5.502804161760094</v>
       </c>
       <c r="F24" s="6" t="inlineStr"/>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>16.84950771657891</v>
+        <v>18.40978787747781</v>
       </c>
     </row>
     <row r="25">
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.75119516654073</v>
+        <v>2.849483170256628</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.827949396772756</v>
+        <v>3.651677379397001</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.497397336665132</v>
+        <v>4.502653527728306</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2.860456252277087</v>
+        <v>2.853524238550344</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2.18881457830718</v>
+        <v>2.005598998467532</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3.964390237504744</v>
+        <v>4.44295769452525</v>
       </c>
     </row>
     <row r="27">
@@ -1184,17 +1184,17 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.713045550425276</v>
+        <v>5.913720828518721</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.471736693098861</v>
+        <v>7.368450318163013</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.392128761936675</v>
+        <v>7.539118431365917</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>16.60934282346381</v>
+        <v>18.44758396581026</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
     </row>
@@ -1216,7 +1216,7 @@
         <v>3.114612478064324</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.750390166777931</v>
+        <v>3.750390166777932</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>11.11631815191963</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.850336103148536</v>
+        <v>1.839175168900386</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.447101217413398</v>
+        <v>2.460651338248452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.198793557989743</v>
+        <v>3.247492281455887</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>4.87534574971626</v>
+        <v>4.911671116281769</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>3.759079764307096</v>
+        <v>4.137698311720307</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>4.894706588236397</v>
+        <v>5.202651470471274</v>
       </c>
     </row>
     <row r="30">
@@ -1262,22 +1262,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.967887553548659</v>
+        <v>3.01324599467263</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.782090330666556</v>
+        <v>3.816024002496906</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.335259873724833</v>
+        <v>4.344836256308467</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26.46310813302309</v>
+        <v>31.21959052557189</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15.72159171690586</v>
+        <v>15.12487806988341</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>17.82124015407297</v>
+        <v>16.72057274049902</v>
       </c>
     </row>
     <row r="31">
